--- a/data/P20versusRestIncomeTrendsSSA.xlsx
+++ b/data/P20versusRestIncomeTrendsSSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6873BFE-0B03-41F9-9887-AA84C5DCB3A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9E02E0-3B8B-4580-B376-A48CE81E4E8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{B072C649-874D-4C3E-A775-6B6A0629E1D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{E3C81C2A-62BA-4479-AA9D-C15169C76D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Angola" sheetId="2" r:id="rId1"/>
@@ -295,7 +295,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A9A0E1-2574-4B8E-A2E3-D4BE0BCA9817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3AF831-FE7D-4DAF-9C32-E188037E72C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +353,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D6A2E5-A0FE-47C8-A9D3-50BFB839D75D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9032BC6C-B882-4DD8-9384-D60EF3A6FEBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +411,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEF58D-0063-4DD2-AF69-4C09967116D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C99349B-B9E9-4DA1-89C4-3CD423CEF663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573B69CD-A108-41A3-9C30-50518D8F1673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F830E2F-DE9F-429C-AC44-53F6716EC6C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B021A7DD-081E-4077-B1C2-33E7968A9C6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866025C3-668B-44E4-BBC3-FCDC573DA627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10164CF6-B94A-439E-B38A-C60AEC732125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775F63AA-4EA4-424A-84A8-442BB82A37DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +643,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D242035-2E74-4D88-8BAB-50E256BE104B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E89C44-98AF-4C8F-81A9-E98133C3AEB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE32E1AF-3E50-4BBC-9F14-1EDBD06D6D3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAE3329-5D11-4F05-8DF8-845DC088E542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +759,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A41E202-3626-4A68-B5F0-C1AC6C55DC93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071E368C-ECCE-49B3-BC8C-2E45B2007F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B536F3D-3355-4525-8F84-75737CB05365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D91D76-3B4F-4FC5-8E6B-4E5F7E3C9A7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5571983-6F45-4774-B2C5-11DF50A4EC8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA67F1CE-DC02-4E2C-93FD-C121D074A239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +933,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A90C82F-C004-4050-A351-46922D79A8BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC5696F-E9AA-4D6F-8CD5-FEA9643345CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B156832-720F-43DD-9C6E-723DB4D2C0A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A832336D-6621-43D7-B00F-14A07E92FC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A0D3C8-FAE2-4422-AD53-606A8C042BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2B6CE5-6D05-48D4-811D-5DB361C7BA4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1107,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1732D9D3-9603-4607-9198-A03820142321}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF5BD64-541C-44B3-9B5B-7F62A112FA9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1165,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079CA75D-7DE6-4515-9F25-720830EDC200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1736773A-75C1-4EB0-BD9C-6D4AD32A24A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A22073-8064-4665-A84B-FC67974120E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EA701B-EF8C-413C-B28B-83122731B41F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3032014D-5C60-4D29-9942-D2BB9C794DD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1EC984-4403-441F-9629-6FB71875A651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6845AD20-C82B-4257-846F-BCA3F46F2774}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5845089D-C610-4F59-9140-208F4087AEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F29F3A6-172F-41DF-B097-816EE68D29FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2076B21-28C2-4551-9B8F-A3D156AACD42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C628A7-43A5-4DFE-87C9-4F3436F1E1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB509EF-2A14-4D88-A2DA-CA9E4C868E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B24DB8-3C0F-4404-95C2-2CEA12E40B1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D220146-B545-4DE5-829F-D5E3E694DA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF861CD6-B6D9-4211-9AED-5F87DA100134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63581CE2-5E4C-43CA-A98B-C43042D0F4BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1629,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FDDDF3-9C5F-4E5F-90D6-97F36EEC0C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC61E2B-5C2D-4633-9DCD-833AC89F145E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E3C847-93F2-4E8E-B92C-F343FC8BFCB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BFEE1E-DD57-44A2-91D0-8B720EAFF243}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4231F48A-5652-44E8-A640-E0FB5C872474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9CAC81-43C6-4187-A395-E245FD76A441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E33B43-3104-4430-9BE7-24D81AA1B321}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D610237-B464-4100-835A-388BB21DBA7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03FAD7A-21C0-4B72-8A4B-215C1B5618EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7FF990-90C7-434C-BC00-A160ABC2D05C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E6DBDE-0566-4813-ABB9-69099FB8E84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5FF5F7-F876-439E-9F2E-5DC3EEF7CEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A8B934-30B3-4F24-A680-AD53F282A562}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1F7821-6E1F-4185-B6CB-664C1C751E2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1223F52E-4DCB-4765-AE66-3F34FCF71D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5DD1A3-AD14-49EE-BC44-B925C3EC1FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2093,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1697B7D-10DC-43F5-813A-230E60152929}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3713A6E-AB2C-4688-97A8-70498964A34F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DB3756-317B-4F97-ACD8-88C4BE99752A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2B7C1A-927A-475A-8709-7C696D2FCC09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2209,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD7C51F-9609-49AE-AFAF-1E9D4BB8AFAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2623CFBC-68A5-4740-88A0-F773EBC4A895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A267A0-32EC-42B7-9CFA-5B94E7C3B387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E59507-E8D1-402F-AAC2-F5C057335230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A192388-9421-4C15-B6CE-EBB32962CD0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9AE696-6D4D-47D1-B755-8267C84D3073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351DE3F3-1F83-49C9-A740-80D2EE3AD5F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8A1C53-66CF-4F96-8AA9-DBA49AFAE49A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08495E72-22DA-4F9A-821E-62F9E983AC92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61DA57F-7F87-4DA0-9467-722B6673918C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6E5EA7-3BA4-49CB-86CF-2467ACC0AD6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5E5973-1EAA-4089-B72B-94B87EBA8833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C00EE6-451D-4BD3-AA3C-981CD073B0A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECD6E7E-B8D7-4023-AC83-DD96C8F5B84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B992EC2F-2A25-4583-9FBC-5D4CE12ECDA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A020472-6DEF-486D-8293-0E45FD573315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3AB7A4-5F1A-4CD6-AD1A-A5D34BB6214B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB99F9B6-7761-4DEE-A8D0-674E039297C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A15D05-D4B3-4A86-B1F6-3FE98D436B1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B560E8E9-2F22-4095-9CD8-C9F0C3EFDC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D994BD8B-6AB2-4395-BABC-4D505360BCE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44B5E61-E8A7-4114-923E-F24134C00793}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56646B56-94D9-40BE-AACD-D841E0E1F2CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22F7B79-518F-4742-955E-8C87258CCCD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA26B87-1C94-4DA2-A9BD-9A338590C41F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787F2BE4-1AA9-4DD0-95E6-E9EC4B4CF516}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3419,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5309BF62-CB48-482F-B4EB-3937CB02DF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C58314-61B2-4295-9849-721A029AB212}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3657,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBC0BC-08CA-4BE4-8E34-F32E51103FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5E31F-B862-48F5-9CC6-F9640DAA252A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD58E9A2-8AB2-41D9-AA92-5612BC7F51D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F78C870-EAD9-4D4F-AA30-38B8BE9C4391}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CAD54-FC75-464C-8B7B-45F72E368B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48B1D2-D998-4228-A0DE-6264105451CA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4371,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE667FAA-D1E2-43AF-8AF4-545F8E8801F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FBF4A9-05E0-4BDC-8430-0E083511343C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4609,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CE4F08-9ED5-463B-A4C7-B60CEBF15408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F9B2D8-CCA0-4572-8B1F-A1ECFEA7EE60}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4847,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D2FB36-B52B-4135-8193-06F767344BA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36028A-33A4-44E3-AFE0-B8AEFE30FF60}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5085,7 +5085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E5799-2614-43D9-9DB8-624C26A2481D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248CCDCE-C04E-410A-A59A-2F5950E4324C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E70AC4C-40C1-4F0D-922B-511E7FF7955A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277BE29-5D26-43CA-8225-F2495C6C6D76}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5561,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25456F1B-907F-495B-95FC-20C2C0B79917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4CD586-FAA0-423B-ABE1-ACE77EA2FE2D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5799,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2BC66-46E5-461A-A77C-A9471C10639C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33FE05D-AEEA-4243-9D12-8D59A7A6B412}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6037,7 +6037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A509F11-56F1-42A2-948B-7ACDDCB72504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F521F-DA9C-4F31-97AA-9C5F597CE53E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EAE342-F0BF-45AE-8E60-A7E860118BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA8FBA6-8700-44BE-9C35-B422BDF26FEB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1FFB25-5DB1-4385-B850-6D4D4215EBC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF6D182-1D50-4F0D-B225-139FBF284950}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6751,7 +6751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC871825-325E-4FCC-BBF6-5764DD1C3494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8EC36C-B934-42D1-B22A-FC58C43F4955}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6989,7 +6989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA898E5-47FD-4CA9-B586-DAAEB769CC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B09FF5F-8866-42D7-8609-D09021BB156B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7227,7 +7227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966790F-27D4-4E41-9A8A-6081D3A34D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138678FE-5C31-45D5-B219-4930FD42CB67}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E68BE82-9C44-4AE4-A6FA-E40810FCC8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E7A95-BF84-4275-AEED-730430BF9378}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD76650-C76E-42A2-A369-C97644F88F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCB032E-8C36-4B60-8D3D-7BE525053C97}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7941,7 +7941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C82034-C863-4FCC-A235-1ECE1DEAC68E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE301F-2DF8-4767-8EE0-3B06EB450C3E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8179,7 +8179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D10B02-5850-4452-9490-4F2FBB2E8835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C2DE8-B782-4F2D-BDAE-D603BED62894}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8417,7 +8417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F655A9E4-74FD-4A39-AB3B-E05139741764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF0E3E-A4EA-4882-8484-F68C4163821B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8655,7 +8655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2304653-4024-4518-97B4-2C79973DA3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498F9CF7-A6BD-4F77-AC87-D41D1900CCBF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8893,7 +8893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F2350C-2773-4EA0-AB3F-CE181DDEF1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2891D-7411-4259-9CE5-DEBD9D17A351}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9131,7 +9131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26A634-C99B-4B0D-9848-380F800DBC78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC3822C-17BE-4712-8831-DF37BDD5F1CB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9369,7 +9369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AEBB36-2806-4357-8863-36B1A70E5D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449B414C-B1AC-4EDD-968C-478BDAFB746C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9607,7 +9607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47C78A4-F18C-47F6-BE07-E2D5EC1AA773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4CB70F-6FBF-416D-9E49-331D64F038A7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386B5789-A802-44A0-AEEE-E98831BF22CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD79206C-24EC-41DB-B67F-99D334CAE23B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10083,7 +10083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA685A7-7A74-4625-8669-815889C766DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141D375E-EE82-4115-B10C-A5BCFE8EE330}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10321,7 +10321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE823A45-6370-4A0D-AA54-7DF19A0A8B84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317A5169-0D61-4A02-BD9B-E85FDE13A0CE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10559,7 +10559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2372A6B6-71B3-4B7B-8BD5-F8F0BBCD64C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF8D5E5-6FE6-4673-83B8-0AE71B2CF45E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10797,7 +10797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDA642B-4E62-4F24-A1AE-42560D49CCB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ABBC19-4B38-4155-92C5-E99149BDFC94}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11035,7 +11035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D9EEA-EB32-4F1E-BD87-AB33FB33A069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E51E7-5B4D-45B6-A35E-E2C76676991F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11273,7 +11273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FBBF6-F7FE-41BA-AA56-2DE8DDCC98B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA869E61-39F9-446D-83DA-A9380D31A9FE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280E936-B9BC-4118-937B-D5843D513273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C75FA11-3914-4A9F-944B-D8C28AFE6005}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11749,7 +11749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08014B5C-AFF3-4DAB-B23D-E3941FCB594B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9D47D-1328-457F-AEFF-3F9A4B412C62}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11981,7 +11981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED12AFD-564A-47BA-824B-B4A59FE5B6EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4DB65F-AEEE-4BEA-980B-38A45CB0D532}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12205,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10DFDA-3793-4073-80D9-F27111487367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B830C02-AF1F-42EC-9D48-6E6E48885D5B}">
   <dimension ref="I1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12345,7 +12345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6B04D1-E4A9-41A3-905A-F7D4AED7487C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3915EF-9437-4114-8A2F-D27C356206DD}">
   <dimension ref="I1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12457,7 +12457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9E6AD8-7F00-4DA8-AFD7-C410A4589275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1681DEF1-B057-4287-AF19-8A4DD154A8CC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12695,7 +12695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C743C-4992-4AF7-B892-26E981643534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F45A096-A0E3-4FEA-BD3C-F00FA72800D6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12933,7 +12933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2221C92B-28B9-4D6A-BFCA-5078FA7B0F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDBE1DD-476C-42A0-9169-219FD9852ADA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13171,7 +13171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BCCF34-916C-43A7-ABBD-E2615AC76440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD709D7A-F040-4929-884B-F13F7D7FDAA2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13409,7 +13409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DFC3A2-544D-4E22-AF1B-6939101BAB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECB6B6-7EAF-4BD2-A3FF-D6DA370BB69D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsSSA.xlsx
+++ b/data/P20versusRestIncomeTrendsSSA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9E02E0-3B8B-4580-B376-A48CE81E4E8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9493C256-7FD2-408D-AA32-936C6A074F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{E3C81C2A-62BA-4479-AA9D-C15169C76D19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="41" activeTab="44" xr2:uid="{3621945B-DFD9-4283-AC6A-115C6943B995}"/>
   </bookViews>
   <sheets>
     <sheet name="Angola" sheetId="2" r:id="rId1"/>
@@ -295,7 +295,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3AF831-FE7D-4DAF-9C32-E188037E72C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B0DF66-11A4-406C-B3A2-81AF473E73B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +353,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9032BC6C-B882-4DD8-9384-D60EF3A6FEBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD27806-4F21-4457-94A2-2D0C9BB90F4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +411,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C99349B-B9E9-4DA1-89C4-3CD423CEF663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E2B112-0FB6-4F14-A470-198741D11B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F830E2F-DE9F-429C-AC44-53F6716EC6C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77973F65-B093-4326-9B94-4744E1C4713B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866025C3-668B-44E4-BBC3-FCDC573DA627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DD14A7-599C-48C2-B280-0E9490D65BD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +585,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775F63AA-4EA4-424A-84A8-442BB82A37DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5276B1D6-316E-4F72-B457-8827AD93D37C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +643,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E89C44-98AF-4C8F-81A9-E98133C3AEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74E31A-3453-47D6-8F5D-6A06F812B195}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +701,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAE3329-5D11-4F05-8DF8-845DC088E542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2345BC-6D22-4A58-A4F8-ED4DB3AF8987}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +759,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071E368C-ECCE-49B3-BC8C-2E45B2007F5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2886F0E1-F3BE-495B-B5B9-03BC62A2155A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D91D76-3B4F-4FC5-8E6B-4E5F7E3C9A7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDA59E1-8068-4615-BAF5-DBD73688048B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA67F1CE-DC02-4E2C-93FD-C121D074A239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A65ACE-82E6-406C-9F19-15D4D01AC182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +933,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC5696F-E9AA-4D6F-8CD5-FEA9643345CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDAFEC7-83E0-45AA-915D-EFBBD22EA98F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +991,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A832336D-6621-43D7-B00F-14A07E92FC06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AF4ABE-301C-444B-BA93-FDA78C4F622F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1049,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2B6CE5-6D05-48D4-811D-5DB361C7BA4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F83C88-4AD9-4A94-8A7E-F583A9627497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1107,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF5BD64-541C-44B3-9B5B-7F62A112FA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1CD117-1A6E-494D-BC61-92468FEB1DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1165,7 +1165,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1736773A-75C1-4EB0-BD9C-6D4AD32A24A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7940055B-A705-496A-81B6-4DDB59796B3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EA701B-EF8C-413C-B28B-83122731B41F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802D2D37-4DC0-4A6F-9F6D-AB548D670D2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1EC984-4403-441F-9629-6FB71875A651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FE2352-6545-4E58-AC04-0A004542B635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5845089D-C610-4F59-9140-208F4087AEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F06895B-318B-4288-A462-737F7BF1A859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2076B21-28C2-4551-9B8F-A3D156AACD42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45636CA2-7775-4D9D-8775-C2B276E4B097}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB509EF-2A14-4D88-A2DA-CA9E4C868E31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A1593B-7D94-46CD-892F-795E13AD8FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D220146-B545-4DE5-829F-D5E3E694DA51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD54C4A-F882-4732-8D8B-F724E76C3298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63581CE2-5E4C-43CA-A98B-C43042D0F4BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D294B1AB-0F0B-4120-B79B-D0780478AEFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1629,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC61E2B-5C2D-4633-9DCD-833AC89F145E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77728E42-18F9-417F-B358-0327DC91D479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BFEE1E-DD57-44A2-91D0-8B720EAFF243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D794D510-633E-42FC-8FE3-34644FCB48BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9CAC81-43C6-4187-A395-E245FD76A441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7DE217-5F3B-4A53-B7D7-4411AF6A58BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D610237-B464-4100-835A-388BB21DBA7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80626F5-C5BA-48D1-81A7-71BAC18B5E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7FF990-90C7-434C-BC00-A160ABC2D05C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3175F9BC-0193-4CBB-9498-96B4B3E99B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1919,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5FF5F7-F876-439E-9F2E-5DC3EEF7CEBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D72A5D9-6241-422B-AE43-3EDBF540978C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1F7821-6E1F-4185-B6CB-664C1C751E2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7EF896-D796-4941-98BD-EAA9D610A39E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5DD1A3-AD14-49EE-BC44-B925C3EC1FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2C6820-A184-4F52-BAE3-E82DE7ED15D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2093,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3713A6E-AB2C-4688-97A8-70498964A34F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C3BCEF-E835-4C8A-A460-3328B1C22E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2151,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2B7C1A-927A-475A-8709-7C696D2FCC09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C4430D-D675-4F09-B4D3-5CD6FB66BD0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2209,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2623CFBC-68A5-4740-88A0-F773EBC4A895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7029D5-B57F-43A5-8EE6-A1E6C69C5F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E59507-E8D1-402F-AAC2-F5C057335230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9769455-A9C5-4BAF-8515-599833D969E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9AE696-6D4D-47D1-B755-8267C84D3073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B68C3E5-0725-4D01-B4F1-66C4C6379D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8A1C53-66CF-4F96-8AA9-DBA49AFAE49A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F4B59D-7C50-4496-A4D5-8632639437F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61DA57F-7F87-4DA0-9467-722B6673918C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7442A148-26EB-43AB-BB57-630FEE1AD306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5E5973-1EAA-4089-B72B-94B87EBA8833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F687C3EB-4C0E-4036-AE53-563F7107205A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECD6E7E-B8D7-4023-AC83-DD96C8F5B84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDEF2B2-5CE3-4D89-9B82-2B80ED25CB5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A020472-6DEF-486D-8293-0E45FD573315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFA08F0-1F03-4D78-8634-924147FDCA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB99F9B6-7761-4DEE-A8D0-674E039297C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A171D06-C94E-4152-96D9-35CF2DC693FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2731,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B560E8E9-2F22-4095-9CD8-C9F0C3EFDC32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381C62EF-7262-42F3-92C6-043802F40DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44B5E61-E8A7-4114-923E-F24134C00793}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25391225-516B-446A-A4BA-0EE6A4CEBA54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2847,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22F7B79-518F-4742-955E-8C87258CCCD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0227E223-D7BF-465D-8BFE-370EAF210AD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787F2BE4-1AA9-4DD0-95E6-E9EC4B4CF516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4C39CF-34ED-40A5-8219-622DD32B11DF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3419,7 +3419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C58314-61B2-4295-9849-721A029AB212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7F67E6-1FF3-4A17-92FC-78CB2AB7D170}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3657,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5E31F-B862-48F5-9CC6-F9640DAA252A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C199C27B-DEEE-4B58-8A3D-E5CC9D02BA06}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F78C870-EAD9-4D4F-AA30-38B8BE9C4391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3062C9-DB7F-4795-B97D-0115C6F6ACA3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A48B1D2-D998-4228-A0DE-6264105451CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009814B-7D13-4831-A8EE-718F31F067D7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4371,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FBF4A9-05E0-4BDC-8430-0E083511343C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B784B5C5-B6FE-47A3-A8A7-F0E4580EAAD7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4609,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F9B2D8-CCA0-4572-8B1F-A1ECFEA7EE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D35AE20-148A-4897-ABE7-8F7187D01A12}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4847,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA36028A-33A4-44E3-AFE0-B8AEFE30FF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD91BEDB-7543-4996-8776-B845C4BE8C0B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5085,7 +5085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248CCDCE-C04E-410A-A59A-2F5950E4324C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576325D3-1B96-4A8D-932C-3072DA14CA37}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5323,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277BE29-5D26-43CA-8225-F2495C6C6D76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5417A37-F76A-4FBB-B20F-FBD6FEE821BD}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5561,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4CD586-FAA0-423B-ABE1-ACE77EA2FE2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32606873-D4E8-4696-B43C-A5FCC5696CDC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5799,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33FE05D-AEEA-4243-9D12-8D59A7A6B412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A00768-7D54-4C6E-A57B-619C8C0357D6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6037,7 +6037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F521F-DA9C-4F31-97AA-9C5F597CE53E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE75F0-3C90-4018-9BD6-199D71D94016}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA8FBA6-8700-44BE-9C35-B422BDF26FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D945FD-357A-44AE-B193-F42FA79D8C25}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF6D182-1D50-4F0D-B225-139FBF284950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DACD5D-6EC7-468F-AABB-8D9B8E8A4DBF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6751,7 +6751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8EC36C-B934-42D1-B22A-FC58C43F4955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0A9C6-8222-4D18-BBB0-0EEE46CD1821}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6989,7 +6989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B09FF5F-8866-42D7-8609-D09021BB156B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94250900-60F3-4476-AAC8-F073332262D6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7227,7 +7227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138678FE-5C31-45D5-B219-4930FD42CB67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FFDF20-BBB5-46B5-9062-FE33B61B035B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E7A95-BF84-4275-AEED-730430BF9378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEC929F-DB4D-4564-8CA4-9937BA48E1AF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCB032E-8C36-4B60-8D3D-7BE525053C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A34F38-EF56-4EBC-B59D-B116A8A957DB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7941,7 +7941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAE301F-2DF8-4767-8EE0-3B06EB450C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB6123F-598F-428D-9F49-BC017941F707}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8179,7 +8179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C2DE8-B782-4F2D-BDAE-D603BED62894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73F287E-A35F-4B60-A7E8-DD6B3F5AFEF8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8417,7 +8417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF0E3E-A4EA-4882-8484-F68C4163821B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5198E7-3172-4E0D-A157-8B9A034D7BE9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8655,7 +8655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498F9CF7-A6BD-4F77-AC87-D41D1900CCBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C94DCD1-D6B7-47EE-B831-F2C13BCE826C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8893,7 +8893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2891D-7411-4259-9CE5-DEBD9D17A351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51107B02-ECE7-4E0E-99E1-FCBB57034037}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9131,7 +9131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC3822C-17BE-4712-8831-DF37BDD5F1CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8165102A-3501-456F-BAF6-1378B846FF1A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9369,7 +9369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449B414C-B1AC-4EDD-968C-478BDAFB746C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69854EA0-A039-4635-ACA6-9EC29641E316}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9607,7 +9607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4CB70F-6FBF-416D-9E49-331D64F038A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AE8D3A-DD45-4CC4-A3EA-67E177BF74E5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD79206C-24EC-41DB-B67F-99D334CAE23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E9874B-03C7-4B21-9364-5341E81C114A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10083,7 +10083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141D375E-EE82-4115-B10C-A5BCFE8EE330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E16AFA-99D0-4244-AB91-3E8B03BFFF91}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10321,7 +10321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317A5169-0D61-4A02-BD9B-E85FDE13A0CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1819DFB-B168-455B-8DF3-82B28FD54320}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10559,7 +10559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF8D5E5-6FE6-4673-83B8-0AE71B2CF45E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C1B8FE-E55C-42F7-8F1A-3A12F3A26D38}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10797,7 +10797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ABBC19-4B38-4155-92C5-E99149BDFC94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D798F48C-B354-4ADD-BBD8-9D424F926EA7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11035,7 +11035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E51E7-5B4D-45B6-A35E-E2C76676991F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE4FCA-5B65-4680-B718-BC7461817026}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11273,7 +11273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA869E61-39F9-446D-83DA-A9380D31A9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFE86B8-F798-4490-B9C9-0D300AE36ABC}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C75FA11-3914-4A9F-944B-D8C28AFE6005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D5FF5E-5185-4FCF-A9DE-7F698926A4B2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11749,7 +11749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9D47D-1328-457F-AEFF-3F9A4B412C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4090A016-4F36-48CA-B244-4DFFFB70C02A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11981,7 +11981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4DB65F-AEEE-4BEA-980B-38A45CB0D532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ACD9D7-EE6E-42C6-8AB2-087FC4D62A31}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12205,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B830C02-AF1F-42EC-9D48-6E6E48885D5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC29758-4518-44CA-BAD2-ECBBBF7290F1}">
   <dimension ref="I1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12345,7 +12345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3915EF-9437-4114-8A2F-D27C356206DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAEE794-7AA7-4AA8-BCA7-5F7B8CB43660}">
   <dimension ref="I1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12457,7 +12457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1681DEF1-B057-4287-AF19-8A4DD154A8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4061D8E-6B3C-4D98-B0F2-533978B54354}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12695,7 +12695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F45A096-A0E3-4FEA-BD3C-F00FA72800D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9B0FC7-6C55-4A92-B371-507789366754}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12933,7 +12933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDBE1DD-476C-42A0-9169-219FD9852ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1E934-8DBE-4198-A91E-39E2EEA1C4B3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13171,7 +13171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD709D7A-F040-4929-884B-F13F7D7FDAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D321987C-F98E-4CB8-90F7-0779FA775C7C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13409,7 +13409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ECB6B6-7EAF-4BD2-A3FF-D6DA370BB69D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840AAB02-4956-48B0-8C94-BE05D50162E8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
